--- a/接口文档/后台/博客接口文档.xlsx
+++ b/接口文档/后台/博客接口文档.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
   <si>
     <t>模块</t>
   </si>
@@ -43,10 +43,7 @@
     <t>/api/web/blog/findById</t>
   </si>
   <si>
-    <t>/{id}</t>
-  </si>
-  <si>
-    <t>http://localhost:8080/api/web/blog/findById/{id}</t>
+    <t>id</t>
   </si>
   <si>
     <t>根据id查询博客</t>
@@ -58,10 +55,27 @@
     <t>/api/web/blog/findAll</t>
   </si>
   <si>
-    <t>/{start}/{pageSize}</t>
-  </si>
-  <si>
-    <t>http://localhost:8080/api/web/blog/findAll/{start}/{pageSize}</t>
+    <r>
+      <t>start</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Avenir Next"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pageSize</t>
+    </r>
   </si>
   <si>
     <t>根据页码和条数查询博客</t>
@@ -70,10 +84,7 @@
     <t>删除</t>
   </si>
   <si>
-    <t>/api/web/blog/deleteById</t>
-  </si>
-  <si>
-    <t>http://localhost:8080/api/web/blog/deleteById/{id}</t>
+    <t>/api/web/blog/delete</t>
   </si>
   <si>
     <t>根据id删除博客(软删除)</t>
@@ -82,7 +93,7 @@
     <t>更新博客</t>
   </si>
   <si>
-    <t>/api/web/blogUpdateById</t>
+    <t>/api/web/blogUpdate</t>
   </si>
   <si>
     <r>
@@ -168,16 +179,10 @@
     </r>
   </si>
   <si>
-    <t>http://localhost:8080/api/web/blog/updateById?参数</t>
-  </si>
-  <si>
     <t>写博客</t>
   </si>
   <si>
-    <t>/api/web/addBlog</t>
-  </si>
-  <si>
-    <t>http://localhost:8080/api/web/blog/updateAddBlug?参数</t>
+    <t>/api/web/add</t>
   </si>
 </sst>
 </file>
@@ -185,13 +190,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yy\-m\-d"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -241,14 +246,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Helvetica"/>
@@ -263,6 +260,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -271,16 +290,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,36 +327,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -346,9 +335,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -376,6 +365,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -404,109 +401,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,67 +575,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -607,6 +604,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -618,15 +648,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -648,35 +669,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -695,15 +701,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
@@ -712,10 +709,10 @@
     <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -724,133 +721,133 @@
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -882,32 +879,32 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2110,7 +2107,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.17142857142857" defaultRowHeight="13.65" customHeight="1" outlineLevelCol="4"/>
@@ -2161,240 +2158,230 @@
       <c r="C3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" ht="27" customHeight="1" spans="1:5">
       <c r="A4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="D4" s="10"/>
+      <c r="E4" s="8" t="s">
         <v>14</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" ht="22.75" customHeight="1" spans="1:5">
       <c r="A5" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>19</v>
-      </c>
+      <c r="D5" s="7"/>
       <c r="E5" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" ht="22" customHeight="1" spans="1:5">
       <c r="A6" s="8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" ht="22.75" customHeight="1" spans="1:5">
       <c r="A7" s="8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="8" ht="22.75" customHeight="1" spans="1:5">
-      <c r="A8" s="13"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="5"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="14"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="13"/>
       <c r="E8" s="8"/>
     </row>
     <row r="9" ht="22.75" customHeight="1" spans="1:5">
-      <c r="A9" s="15"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
       <c r="E9" s="3"/>
     </row>
     <row r="10" ht="22.75" customHeight="1" spans="1:5">
-      <c r="A10" s="17"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="5"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
       <c r="E10" s="5"/>
     </row>
     <row r="11" ht="22.75" customHeight="1" spans="1:5">
-      <c r="A11" s="15"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
       <c r="E11" s="3"/>
     </row>
     <row r="12" ht="22.75" customHeight="1" spans="1:5">
-      <c r="A12" s="17"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="5"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
       <c r="E12" s="5"/>
     </row>
     <row r="13" ht="22.75" customHeight="1" spans="1:5">
-      <c r="A13" s="15"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
       <c r="E13" s="3"/>
     </row>
     <row r="14" ht="22.75" customHeight="1" spans="1:5">
-      <c r="A14" s="17"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="5"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
       <c r="E14" s="5"/>
     </row>
     <row r="15" ht="22.75" customHeight="1" spans="1:5">
-      <c r="A15" s="15"/>
+      <c r="A15" s="14"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
       <c r="E15" s="3"/>
     </row>
     <row r="16" ht="22.75" customHeight="1" spans="1:5">
-      <c r="A16" s="17"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="5"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
       <c r="E16" s="5"/>
     </row>
     <row r="17" ht="22.75" customHeight="1" spans="1:5">
-      <c r="A17" s="15"/>
+      <c r="A17" s="14"/>
       <c r="B17" s="3"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
       <c r="E17" s="3"/>
     </row>
     <row r="18" ht="22.75" customHeight="1" spans="1:5">
-      <c r="A18" s="17"/>
+      <c r="A18" s="16"/>
       <c r="B18" s="5"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
       <c r="E18" s="5"/>
     </row>
     <row r="19" ht="22.75" customHeight="1" spans="1:5">
-      <c r="A19" s="15"/>
+      <c r="A19" s="14"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
       <c r="E19" s="3"/>
     </row>
     <row r="20" ht="22.75" customHeight="1" spans="1:5">
-      <c r="A20" s="17"/>
+      <c r="A20" s="16"/>
       <c r="B20" s="5"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
       <c r="E20" s="5"/>
     </row>
     <row r="21" ht="22.75" customHeight="1" spans="1:5">
-      <c r="A21" s="15"/>
+      <c r="A21" s="14"/>
       <c r="B21" s="3"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
       <c r="E21" s="3"/>
     </row>
     <row r="22" ht="22.75" customHeight="1" spans="1:5">
-      <c r="A22" s="17"/>
+      <c r="A22" s="16"/>
       <c r="B22" s="5"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
       <c r="E22" s="5"/>
     </row>
     <row r="23" ht="22.75" customHeight="1" spans="1:5">
-      <c r="A23" s="15"/>
+      <c r="A23" s="14"/>
       <c r="B23" s="3"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
       <c r="E23" s="3"/>
     </row>
     <row r="24" ht="22.75" customHeight="1" spans="1:5">
-      <c r="A24" s="17"/>
+      <c r="A24" s="16"/>
       <c r="B24" s="5"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
       <c r="E24" s="5"/>
     </row>
     <row r="25" ht="22.75" customHeight="1" spans="1:5">
-      <c r="A25" s="15"/>
+      <c r="A25" s="14"/>
       <c r="B25" s="3"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
       <c r="E25" s="3"/>
     </row>
     <row r="26" ht="22.75" customHeight="1" spans="1:5">
-      <c r="A26" s="17"/>
+      <c r="A26" s="16"/>
       <c r="B26" s="5"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
       <c r="E26" s="5"/>
     </row>
     <row r="27" ht="22.75" customHeight="1" spans="1:5">
-      <c r="A27" s="15"/>
+      <c r="A27" s="14"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
       <c r="E27" s="3"/>
     </row>
     <row r="28" ht="22.75" customHeight="1" spans="1:5">
-      <c r="A28" s="17"/>
+      <c r="A28" s="16"/>
       <c r="B28" s="5"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
       <c r="E28" s="5"/>
     </row>
     <row r="29" ht="22.75" customHeight="1" spans="1:5">
-      <c r="A29" s="15"/>
+      <c r="A29" s="14"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
       <c r="E29" s="3"/>
     </row>
     <row r="30" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A30" s="17"/>
+      <c r="A30" s="16"/>
       <c r="B30" s="5"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
       <c r="E30" s="5"/>
     </row>
   </sheetData>
@@ -2403,11 +2390,6 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="http:/localhost:8080" tooltip="http://www.xiaomo.info"/>
-    <hyperlink ref="D3" r:id="rId2" display="http://localhost:8080/api/web/blog/findById/{id}"/>
-    <hyperlink ref="D4" r:id="rId3" display="http://localhost:8080/api/web/blog/findAll/{start}/{pageSize}"/>
-    <hyperlink ref="D5" r:id="rId4" display="http://localhost:8080/api/web/blog/deleteById/{id}"/>
-    <hyperlink ref="D6" r:id="rId5" display="http://localhost:8080/api/web/blog/updateById?参数"/>
-    <hyperlink ref="D7" r:id="rId6" display="http://localhost:8080/api/web/blog/updateAddBlug?参数"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="0.25" bottom="0.25" header="0.25" footer="0.25"/>
   <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>

--- a/接口文档/后台/博客接口文档.xlsx
+++ b/接口文档/后台/博客接口文档.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
   <si>
     <t>模块</t>
   </si>
@@ -25,6 +25,9 @@
     <t>参数</t>
   </si>
   <si>
+    <t>method</t>
+  </si>
+  <si>
     <t>备注</t>
   </si>
   <si>
@@ -37,7 +40,7 @@
     <t>http:/localhost:8080</t>
   </si>
   <si>
-    <t>查询</t>
+    <t>查询|id</t>
   </si>
   <si>
     <t>/api/web/blog/findById</t>
@@ -46,9 +49,24 @@
     <t>id</t>
   </si>
   <si>
+    <t>GET</t>
+  </si>
+  <si>
     <t>根据id查询博客</t>
   </si>
   <si>
+    <t>查询|title</t>
+  </si>
+  <si>
+    <t>/api/web/blog/findByTitle</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>根据title查询博客</t>
+  </si>
+  <si>
     <t>分页查询</t>
   </si>
   <si>
@@ -56,6 +74,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Avenir Next"/>
+        <charset val="134"/>
+      </rPr>
       <t>start</t>
     </r>
     <r>
@@ -179,6 +203,9 @@
     </r>
   </si>
   <si>
+    <t>POST</t>
+  </si>
+  <si>
     <t>写博客</t>
   </si>
   <si>
@@ -190,11 +217,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="yy\-m\-d"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yy\-m\-d"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -240,13 +267,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Helvetica"/>
       <charset val="0"/>
@@ -260,8 +280,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,6 +341,13 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Helvetica"/>
@@ -298,8 +355,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,16 +378,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -335,40 +393,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -395,187 +422,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -607,17 +634,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -652,17 +700,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -677,181 +728,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -859,6 +886,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -873,6 +903,9 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -881,6 +914,9 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2104,289 +2140,350 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D1" sqref="D$1:D$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.17142857142857" defaultRowHeight="13.65" customHeight="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.17142857142857" defaultRowHeight="13.65" customHeight="1" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="16.5047619047619" style="1" customWidth="1"/>
     <col min="2" max="2" width="27.1714285714286" style="1" customWidth="1"/>
     <col min="3" max="3" width="36.6761904761905" style="1" customWidth="1"/>
-    <col min="4" max="4" width="55.8571428571429" style="1" customWidth="1"/>
-    <col min="5" max="5" width="28.7142857142857" style="2" customWidth="1"/>
-    <col min="6" max="256" width="8.17142857142857" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8" style="2" customWidth="1"/>
+    <col min="5" max="5" width="34.1428571428571" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28.7142857142857" style="3" customWidth="1"/>
+    <col min="7" max="257" width="8.17142857142857" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31" customHeight="1" spans="1:5">
-      <c r="A1" s="3" t="s">
+    <row r="1" ht="31" customHeight="1" spans="1:6">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" ht="22.6" customHeight="1" spans="1:5">
-      <c r="A2" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5" t="s">
+    </row>
+    <row r="2" ht="22.6" customHeight="1" spans="1:6">
+      <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" ht="22.85" customHeight="1" spans="1:5">
-      <c r="A3" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" ht="22.6" customHeight="1" spans="1:6">
+      <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="4" t="s">
+      <c r="C3" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" ht="27" customHeight="1" spans="1:5">
-      <c r="A4" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="E3" s="9"/>
+      <c r="F3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="9" t="s">
+    </row>
+    <row r="4" ht="22.85" customHeight="1" spans="1:6">
+      <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="8" t="s">
+      <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" ht="22.75" customHeight="1" spans="1:5">
-      <c r="A5" s="4" t="s">
+      <c r="C4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="D4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="4" t="s">
+    </row>
+    <row r="5" ht="27" customHeight="1" spans="1:6">
+      <c r="A5" s="10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" ht="22" customHeight="1" spans="1:5">
-      <c r="A6" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="D5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" ht="22.75" customHeight="1" spans="1:5">
-      <c r="A7" s="8" t="s">
+    </row>
+    <row r="6" ht="22.75" customHeight="1" spans="1:6">
+      <c r="A6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" ht="22.75" customHeight="1" spans="1:5">
-      <c r="A8" s="12"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" ht="22.75" customHeight="1" spans="1:5">
-      <c r="A9" s="14"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" ht="22.75" customHeight="1" spans="1:5">
-      <c r="A10" s="16"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" ht="22.75" customHeight="1" spans="1:5">
-      <c r="A11" s="14"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" ht="22.75" customHeight="1" spans="1:5">
-      <c r="A12" s="16"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" ht="22.75" customHeight="1" spans="1:5">
-      <c r="A13" s="14"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" ht="22.75" customHeight="1" spans="1:5">
-      <c r="A14" s="16"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" ht="22.75" customHeight="1" spans="1:5">
-      <c r="A15" s="14"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" ht="22.75" customHeight="1" spans="1:5">
-      <c r="A16" s="16"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" ht="22.75" customHeight="1" spans="1:5">
-      <c r="A17" s="14"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" ht="22.75" customHeight="1" spans="1:5">
-      <c r="A18" s="16"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="5"/>
-    </row>
-    <row r="19" ht="22.75" customHeight="1" spans="1:5">
-      <c r="A19" s="14"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" ht="22.75" customHeight="1" spans="1:5">
-      <c r="A20" s="16"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="5"/>
-    </row>
-    <row r="21" ht="22.75" customHeight="1" spans="1:5">
-      <c r="A21" s="14"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" ht="22.75" customHeight="1" spans="1:5">
-      <c r="A22" s="16"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="5"/>
-    </row>
-    <row r="23" ht="22.75" customHeight="1" spans="1:5">
-      <c r="A23" s="14"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" ht="22.75" customHeight="1" spans="1:5">
-      <c r="A24" s="16"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="5"/>
-    </row>
-    <row r="25" ht="22.75" customHeight="1" spans="1:5">
-      <c r="A25" s="14"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" ht="22.75" customHeight="1" spans="1:5">
-      <c r="A26" s="16"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="5"/>
-    </row>
-    <row r="27" ht="22.75" customHeight="1" spans="1:5">
-      <c r="A27" s="14"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" ht="22.75" customHeight="1" spans="1:5">
-      <c r="A28" s="16"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="5"/>
-    </row>
-    <row r="29" ht="22.75" customHeight="1" spans="1:5">
-      <c r="A29" s="14"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A30" s="16"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="5"/>
+      <c r="C6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" ht="22" customHeight="1" spans="1:6">
+      <c r="A7" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" ht="22.75" customHeight="1" spans="1:6">
+      <c r="A8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" ht="22.75" customHeight="1" spans="1:6">
+      <c r="A9" s="15"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" ht="22.75" customHeight="1" spans="1:6">
+      <c r="A10" s="17"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" ht="22.75" customHeight="1" spans="1:6">
+      <c r="A11" s="19"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" ht="22.75" customHeight="1" spans="1:6">
+      <c r="A12" s="17"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" ht="22.75" customHeight="1" spans="1:6">
+      <c r="A13" s="19"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" ht="22.75" customHeight="1" spans="1:6">
+      <c r="A14" s="17"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" ht="22.75" customHeight="1" spans="1:6">
+      <c r="A15" s="19"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" ht="22.75" customHeight="1" spans="1:6">
+      <c r="A16" s="17"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" ht="22.75" customHeight="1" spans="1:6">
+      <c r="A17" s="19"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" ht="22.75" customHeight="1" spans="1:6">
+      <c r="A18" s="17"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" ht="22.75" customHeight="1" spans="1:6">
+      <c r="A19" s="19"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" ht="22.75" customHeight="1" spans="1:6">
+      <c r="A20" s="17"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" ht="22.75" customHeight="1" spans="1:6">
+      <c r="A21" s="19"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" ht="22.75" customHeight="1" spans="1:6">
+      <c r="A22" s="17"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" ht="22.75" customHeight="1" spans="1:6">
+      <c r="A23" s="19"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" ht="22.75" customHeight="1" spans="1:6">
+      <c r="A24" s="17"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" ht="22.75" customHeight="1" spans="1:6">
+      <c r="A25" s="19"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" ht="22.75" customHeight="1" spans="1:6">
+      <c r="A26" s="17"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" ht="22.75" customHeight="1" spans="1:6">
+      <c r="A27" s="19"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" ht="22.75" customHeight="1" spans="1:6">
+      <c r="A28" s="17"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" ht="22.75" customHeight="1" spans="1:6">
+      <c r="A29" s="19"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="6"/>
+    </row>
+    <row r="30" ht="22.75" customHeight="1" spans="1:6">
+      <c r="A30" s="17"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A31" s="19"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B2:F2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="http:/localhost:8080" tooltip="http://www.xiaomo.info"/>
